--- a/biology/Médecine/Ethel_Ronzoni_Bishop/Ethel_Ronzoni_Bishop.xlsx
+++ b/biology/Médecine/Ethel_Ronzoni_Bishop/Ethel_Ronzoni_Bishop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ethel Ronzoni Bishop (née le 21 août 1890[1] - 1975) est une biochimiste et physiologiste américaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ethel Ronzoni Bishop (née le 21 août 1890 - 1975) est une biochimiste et physiologiste américaine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ethel Ronzoni naît en Californie[1]. Elle obtient sa licence au Mills College en 1913[1], sa maîtrise à l'université de Columbia en 1914[1] et son doctorat à l'université du Wisconsin en 1923.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ethel Ronzoni naît en Californie. Elle obtient sa licence au Mills College en 1913, sa maîtrise à l'université de Columbia en 1914 et son doctorat à l'université du Wisconsin en 1923.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronzoni est instructrice d'économie domestique à l'université du Missouri de 1914 à 1917, et est professeure adjointe d'économie domestique à l'université du Minnesota pour l'année universitaire 1917-18[2].
-Après l'obtention de son doctorat, Ethel Bishop rejoint l'école de médecine de l'université de Washington en 1923, où elle travaille comme professeure adjointe jusqu'en 1943[3] ; il semble qu'elle soit la première femme à avoir rejoint le corps enseignant de l'école[3]. Pendant son séjour, elle dirige le laboratoire de chimie du département de médecine et de l'hôpital Barnes. En 1943, elle est promue professeure associée de biochimie, poste qu'elle a occupé jusqu'à sa retraite en 1959[3]. Après la Seconde Guerre mondiale, elle est passée à la neuropsychiatrie et dirige le laboratoire du département de psychiatrie[3].
-En tant que chercheuse, Ethel Bishop s'est principalement intéressée au métabolisme des glucides. Elle a également mené des recherches sur le métabolisme des acides aminés, les hormones stéroïdes et la biochimie musculaire[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronzoni est instructrice d'économie domestique à l'université du Missouri de 1914 à 1917, et est professeure adjointe d'économie domestique à l'université du Minnesota pour l'année universitaire 1917-18.
+Après l'obtention de son doctorat, Ethel Bishop rejoint l'école de médecine de l'université de Washington en 1923, où elle travaille comme professeure adjointe jusqu'en 1943 ; il semble qu'elle soit la première femme à avoir rejoint le corps enseignant de l'école. Pendant son séjour, elle dirige le laboratoire de chimie du département de médecine et de l'hôpital Barnes. En 1943, elle est promue professeure associée de biochimie, poste qu'elle a occupé jusqu'à sa retraite en 1959. Après la Seconde Guerre mondiale, elle est passée à la neuropsychiatrie et dirige le laboratoire du département de psychiatrie.
+En tant que chercheuse, Ethel Bishop s'est principalement intéressée au métabolisme des glucides. Elle a également mené des recherches sur le métabolisme des acides aminés, les hormones stéroïdes et la biochimie musculaire,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant ses études à l'université du Wisconsin, Ronzoni rencontre George Holman Ethel Bishop[5], qui travaillait également à l'université de Washington. Ronzoni et Ethel Bishop ont vécu dans la maison historique William Long Log House ; après la mort de Ronzoni en 1975, le comté de St. Louis a repris la maison[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant ses études à l'université du Wisconsin, Ronzoni rencontre George Holman Ethel Bishop, qui travaillait également à l'université de Washington. Ronzoni et Ethel Bishop ont vécu dans la maison historique William Long Log House ; après la mort de Ronzoni en 1975, le comté de St. Louis a repris la maison.
 </t>
         </is>
       </c>
